--- a/feature/prepare-use-cases-narratives/ig/StructureDefinition-FrAppointmentSAS.xlsx
+++ b/feature/prepare-use-cases-narratives/ig/StructureDefinition-FrAppointmentSAS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T09:35:36+00:00</t>
+    <t>2024-06-19T07:13:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/prepare-use-cases-narratives/ig/StructureDefinition-FrAppointmentSAS.xlsx
+++ b/feature/prepare-use-cases-narratives/ig/StructureDefinition-FrAppointmentSAS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T07:13:44+00:00</t>
+    <t>2024-06-19T07:35:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/prepare-use-cases-narratives/ig/StructureDefinition-FrAppointmentSAS.xlsx
+++ b/feature/prepare-use-cases-narratives/ig/StructureDefinition-FrAppointmentSAS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T07:35:42+00:00</t>
+    <t>2024-06-19T09:48:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/prepare-use-cases-narratives/ig/StructureDefinition-FrAppointmentSAS.xlsx
+++ b/feature/prepare-use-cases-narratives/ig/StructureDefinition-FrAppointmentSAS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T09:48:35+00:00</t>
+    <t>2024-06-19T13:57:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
